--- a/biology/Zoologie/Lucien_Berland/Lucien_Berland.xlsx
+++ b/biology/Zoologie/Lucien_Berland/Lucien_Berland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucien Berland est un entomologiste et arachnologiste français, né le 14 mai 1888 à Ay (Marne) et mort le 18 août 1962 à Versailles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucien Berland est un entomologiste et arachnologiste français, né le 14 mai 1888 à Ay (Marne) et mort le 18 août 1962 à Versailles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné dès l’enfance par la nature, il fait ses études au lycée Charlemagne puis à la Sorbonne où il obtient une licence de sciences naturelles en 1908. C’est sur les conseils de Emil Racoviță (1868-1947) et d’Alice Pruvot-Fol (1873-1972), qu’il s’oriente vers l’étude des araignées. Il rencontre alors Louis Eugène Bouvier (1856-1944) du Muséum de Paris qui le présente à Eugène Simon (1848-1924), le plus célèbre arachnologiste de l’époque.
 Berland entre au Muséum national d'histoire naturelle comme préparateur en 1912 au sein du laboratoire d’entomologie, dirigé par Eugène Bouvier. Berland est aussitôt chargé des collections de myriapodes, d’arachnides, des névroptères, des orthoptères et des hyménoptères. Cinq ans plus tard, la chaire est divisée et le laboratoire est restreint aux seuls insectes. Berland est gravement blessé à Verdun durant la Première Guerre mondiale. L’un de ses fils est fusillé par les Allemands en 1944. Il dirige la Société zoologique de France en 1952.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1925 : Faune de France. 10, Hyménoptères vespiformes, I, Sphegidae, Pompilidae, Scoliidae, Sapygidae, Mutillidae (Paul Lechevalier, Paris).
 1927 : « Les Araignées ubiquistes, ou à large répartition, et leurs moyens de dissémination », Compte rendu sommaire des séances de la Société de biogéographie, 23 : 65-67.
@@ -595,7 +611,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois genres d'araignées aranéomorphes ont été nommés en l'honneur de Lucien Berland : Berlandia,  Berlandiella et Berlandina.
 Une vingtaine d'espèces d'insectes ou d'araignées, décrites par Lucien Berland ou nommées en son honneur, ont reçu l'épithète spécifique berlandi. Pour les espèces concernées, consulter la liste générée automatiquement.
